--- a/config_4.13/game_enter_btn_config.xlsx
+++ b/config_4.13/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1704,14 +1704,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_ltlb","enter",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐爬塔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1745,6 +1737,14 @@
   </si>
   <si>
     <t>127#133#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_gifts","gift_hllb","enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2800,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2833,7 +2833,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>368</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3357,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3458,11 +3458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5751,7 +5751,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5771,7 +5771,7 @@
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5785,13 +5785,13 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5816,7 +5816,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C134" s="6">
         <v>1</v>
@@ -5825,7 +5825,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/game_enter_btn_config.xlsx
+++ b/config_4.13/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="396">
   <si>
     <t>id|行号</t>
   </si>
@@ -1745,6 +1745,22 @@
   </si>
   <si>
     <t>103#133#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜（冲金鸡大厅）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>134#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2800,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3333,7 +3349,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M34" sqref="M33:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3456,13 +3472,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5745,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="E130">
         <v>129</v>
@@ -5826,6 +5842,26 @@
       </c>
       <c r="F134" s="6" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>394</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6178,8 +6214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6277,7 +6313,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="D5" s="6">
         <f>'all_enter|所有按钮入口'!E5</f>
         <v>4</v>

--- a/config_4.13/game_enter_btn_config.xlsx
+++ b/config_4.13/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1318,10 +1318,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>103#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_shtx",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1736,15 +1732,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>127#133#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_ty_gifts","gift_hllb","enter",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>欢乐礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#133#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2385,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2407,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2800,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2833,7 +2833,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2855,7 +2855,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2889,7 +2889,7 @@
         <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2908,10 +2908,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3080,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3193,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3231,7 +3231,7 @@
         <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3270,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3308,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,7 +3319,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3357,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3395,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3439,10 +3439,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3458,11 +3458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3487,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3683,7 +3683,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5111,7 +5111,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5390,7 +5390,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5424,7 +5424,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5450,7 +5450,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5458,7 +5458,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5467,7 +5467,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5475,7 +5475,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5484,7 +5484,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5492,19 +5492,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5512,19 +5512,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5549,7 +5549,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5558,7 +5558,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5592,7 +5592,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5600,7 +5600,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5626,7 +5626,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5634,7 +5634,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5643,7 +5643,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5651,7 +5651,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5660,7 +5660,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5719,19 +5719,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,19 +5739,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5759,19 +5759,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5779,19 +5779,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5816,7 +5816,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C134" s="6">
         <v>1</v>
@@ -5825,7 +5825,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5867,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5878,7 +5878,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5953,7 +5953,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5981,10 +5981,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6028,7 +6028,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6074,7 +6074,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6236,7 +6236,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6256,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6331,10 +6331,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6350,10 +6350,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
